--- a/data/scenario_data/Energy_storage_demand.xlsx
+++ b/data/scenario_data/Energy_storage_demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="7">
   <si>
     <t>index</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>CP4All</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1355,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.05161155183774097</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1369,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.08503612057176439</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1383,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.1400463483560487</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1397,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.2304786089687104</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1411,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.3788620633930405</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2769,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>0.06834730452848502</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2783,7 +2786,7 @@
         <v>4</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>0.1126269054631187</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2797,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>0.1855308978543403</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2811,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>0.3054562194207077</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2825,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>0.5024408527807227</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4183,7 +4186,7 @@
         <v>5</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>0.08952346006039959</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4197,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>0.1475278345532837</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4211,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>0.2430384466859748</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4225,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>0.4001768768895833</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4239,7 +4242,7 @@
         <v>5</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>0.6583558679340189</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4646,6 +4649,1420 @@
       </c>
       <c r="D304">
         <v>119.9890300951377</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>1950</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>1951</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>1952</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>1953</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>1954</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>1955</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>1956</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>1957</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>1958</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>1959</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>1960</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>1961</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>1962</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>1963</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>1964</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>1965</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>1966</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>1967</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>1968</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>1969</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>1970</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>1971</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>1972</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>1973</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>1974</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>1975</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>1976</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>1977</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>1978</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>1979</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>1980</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>1981</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>1982</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>1983</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>1984</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>1985</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>1986</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>1987</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>1988</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>1989</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>1990</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>1991</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>1992</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>1993</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>1994</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>1995</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>1996</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>1997</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>1998</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>1999</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>2000</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>2001</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>2002</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>2003</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>2004</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>2005</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>2006</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>2007</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>2008</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>2009</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>2010</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>2011</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>2012</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>2013</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>2014</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>2015</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>2016</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>2017</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372">
+        <v>0.2002564859148577</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>2018</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373">
+        <v>0.2985841944313958</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>2019</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374">
+        <v>0.4450721681942594</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>2020</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375">
+        <v>0.6631631818984774</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>2021</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376">
+        <v>0.9875338019010728</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>2022</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377">
+        <v>1.46926280756878</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>2023</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378">
+        <v>2.183118297169362</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>2024</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379">
+        <v>3.23751779317648</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>2025</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380">
+        <v>4.787458843835854</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>2026</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381">
+        <v>7.049830103417584</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>2027</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382">
+        <v>10.31835166179637</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>2028</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383">
+        <v>14.97108536890602</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>2029</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384">
+        <v>21.45652596398116</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>2030</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>30.23669067589359</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>2031</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386">
+        <v>41.66553897017682</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>2032</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387">
+        <v>55.80459339702976</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>2033</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388">
+        <v>72.23622117975864</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>2034</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>2035</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390">
+        <v>107.7637788202414</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>2036</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391">
+        <v>124.1954066029702</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>2037</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392">
+        <v>138.3344610298232</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>2038</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393">
+        <v>149.7633093241064</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>2039</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394">
+        <v>158.5434740360188</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>2040</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395">
+        <v>165.028914631094</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>2041</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396">
+        <v>169.6816483382036</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>2042</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397">
+        <v>172.9501698965824</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>2043</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398">
+        <v>175.2125411561641</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>2044</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399">
+        <v>176.7624822068235</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>2045</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400">
+        <v>177.8168817028306</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>2046</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401">
+        <v>178.5307371924312</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>2047</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402">
+        <v>179.0124661980989</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>2048</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403">
+        <v>179.3368368181015</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>2049</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404">
+        <v>179.5549278318058</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>2050</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405">
+        <v>179.7014158055686</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenario_data/Energy_storage_demand.xlsx
+++ b/data/scenario_data/Energy_storage_demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>CP4All</t>
+  </si>
+  <si>
+    <t>ENTSOE_2022</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6065,6 +6068,1420 @@
         <v>179.7014158055686</v>
       </c>
     </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>1950</v>
+      </c>
+      <c r="C406" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>1951</v>
+      </c>
+      <c r="C407" t="s">
+        <v>7</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>1952</v>
+      </c>
+      <c r="C408" t="s">
+        <v>7</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>1953</v>
+      </c>
+      <c r="C409" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>1954</v>
+      </c>
+      <c r="C410" t="s">
+        <v>7</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>1955</v>
+      </c>
+      <c r="C411" t="s">
+        <v>7</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>1956</v>
+      </c>
+      <c r="C412" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>1957</v>
+      </c>
+      <c r="C413" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>1958</v>
+      </c>
+      <c r="C414" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>1959</v>
+      </c>
+      <c r="C415" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>1960</v>
+      </c>
+      <c r="C416" t="s">
+        <v>7</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>1961</v>
+      </c>
+      <c r="C417" t="s">
+        <v>7</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>1962</v>
+      </c>
+      <c r="C418" t="s">
+        <v>7</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>1963</v>
+      </c>
+      <c r="C419" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>1964</v>
+      </c>
+      <c r="C420" t="s">
+        <v>7</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>1965</v>
+      </c>
+      <c r="C421" t="s">
+        <v>7</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>1966</v>
+      </c>
+      <c r="C422" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>1967</v>
+      </c>
+      <c r="C423" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>1968</v>
+      </c>
+      <c r="C424" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>1969</v>
+      </c>
+      <c r="C425" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>1970</v>
+      </c>
+      <c r="C426" t="s">
+        <v>7</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>1971</v>
+      </c>
+      <c r="C427" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>1972</v>
+      </c>
+      <c r="C428" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>1973</v>
+      </c>
+      <c r="C429" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>1974</v>
+      </c>
+      <c r="C430" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>1975</v>
+      </c>
+      <c r="C431" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>1976</v>
+      </c>
+      <c r="C432" t="s">
+        <v>7</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>1977</v>
+      </c>
+      <c r="C433" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>1978</v>
+      </c>
+      <c r="C434" t="s">
+        <v>7</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>1979</v>
+      </c>
+      <c r="C435" t="s">
+        <v>7</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>1980</v>
+      </c>
+      <c r="C436" t="s">
+        <v>7</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>1981</v>
+      </c>
+      <c r="C437" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>1982</v>
+      </c>
+      <c r="C438" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>1983</v>
+      </c>
+      <c r="C439" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>1984</v>
+      </c>
+      <c r="C440" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>1985</v>
+      </c>
+      <c r="C441" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>1986</v>
+      </c>
+      <c r="C442" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>1987</v>
+      </c>
+      <c r="C443" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>1988</v>
+      </c>
+      <c r="C444" t="s">
+        <v>7</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>1989</v>
+      </c>
+      <c r="C445" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>1990</v>
+      </c>
+      <c r="C446" t="s">
+        <v>7</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>1991</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>1992</v>
+      </c>
+      <c r="C448" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>1993</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>1994</v>
+      </c>
+      <c r="C450" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>1995</v>
+      </c>
+      <c r="C451" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>1996</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>1997</v>
+      </c>
+      <c r="C453" t="s">
+        <v>7</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>1998</v>
+      </c>
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>1999</v>
+      </c>
+      <c r="C455" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>2000</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>2001</v>
+      </c>
+      <c r="C457" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>2002</v>
+      </c>
+      <c r="C458" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>2003</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>2004</v>
+      </c>
+      <c r="C460" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>2005</v>
+      </c>
+      <c r="C461" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>2006</v>
+      </c>
+      <c r="C462" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>2007</v>
+      </c>
+      <c r="C463" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>2008</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>2009</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>2010</v>
+      </c>
+      <c r="C466" t="s">
+        <v>7</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>2011</v>
+      </c>
+      <c r="C467" t="s">
+        <v>7</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>2012</v>
+      </c>
+      <c r="C468" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>2013</v>
+      </c>
+      <c r="C469" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>2014</v>
+      </c>
+      <c r="C470" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>2015</v>
+      </c>
+      <c r="C471" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>2016</v>
+      </c>
+      <c r="C472" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>2017</v>
+      </c>
+      <c r="C473" t="s">
+        <v>7</v>
+      </c>
+      <c r="D473">
+        <v>0.2781340082150802</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>2018</v>
+      </c>
+      <c r="C474" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474">
+        <v>0.4147002700436054</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>2019</v>
+      </c>
+      <c r="C475" t="s">
+        <v>7</v>
+      </c>
+      <c r="D475">
+        <v>0.6181557891586936</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>2020</v>
+      </c>
+      <c r="C476" t="s">
+        <v>7</v>
+      </c>
+      <c r="D476">
+        <v>0.9210599748589965</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>2021</v>
+      </c>
+      <c r="C477" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477">
+        <v>1.371574724862601</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>2022</v>
+      </c>
+      <c r="C478" t="s">
+        <v>7</v>
+      </c>
+      <c r="D478">
+        <v>2.040642788289972</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>2023</v>
+      </c>
+      <c r="C479" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479">
+        <v>3.032108746068559</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>2024</v>
+      </c>
+      <c r="C480" t="s">
+        <v>7</v>
+      </c>
+      <c r="D480">
+        <v>4.496552490522889</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>2025</v>
+      </c>
+      <c r="C481" t="s">
+        <v>7</v>
+      </c>
+      <c r="D481">
+        <v>6.649248394216464</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>2026</v>
+      </c>
+      <c r="C482" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482">
+        <v>9.791430699191089</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>2027</v>
+      </c>
+      <c r="C483" t="s">
+        <v>7</v>
+      </c>
+      <c r="D483">
+        <v>14.33104397471718</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>2028</v>
+      </c>
+      <c r="C484" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484">
+        <v>20.79317412348059</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>2029</v>
+      </c>
+      <c r="C485" t="s">
+        <v>7</v>
+      </c>
+      <c r="D485">
+        <v>29.80073050552939</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>2030</v>
+      </c>
+      <c r="C486" t="s">
+        <v>7</v>
+      </c>
+      <c r="D486">
+        <v>41.99540371651888</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>2031</v>
+      </c>
+      <c r="C487" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487">
+        <v>57.86880412524558</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>2032</v>
+      </c>
+      <c r="C488" t="s">
+        <v>7</v>
+      </c>
+      <c r="D488">
+        <v>77.50637971809688</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>2033</v>
+      </c>
+      <c r="C489" t="s">
+        <v>7</v>
+      </c>
+      <c r="D489">
+        <v>100.328084971887</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>2034</v>
+      </c>
+      <c r="C490" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>2035</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491">
+        <v>149.671915028113</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>2036</v>
+      </c>
+      <c r="C492" t="s">
+        <v>7</v>
+      </c>
+      <c r="D492">
+        <v>172.4936202819031</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>2037</v>
+      </c>
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="D493">
+        <v>192.1311958747544</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>2038</v>
+      </c>
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+      <c r="D494">
+        <v>208.0045962834811</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>2039</v>
+      </c>
+      <c r="C495" t="s">
+        <v>7</v>
+      </c>
+      <c r="D495">
+        <v>220.1992694944706</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>2040</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496">
+        <v>229.2068258765194</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>2041</v>
+      </c>
+      <c r="C497" t="s">
+        <v>7</v>
+      </c>
+      <c r="D497">
+        <v>235.6689560252828</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>2042</v>
+      </c>
+      <c r="C498" t="s">
+        <v>7</v>
+      </c>
+      <c r="D498">
+        <v>240.2085693008089</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>2043</v>
+      </c>
+      <c r="C499" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499">
+        <v>243.3507516057835</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>2044</v>
+      </c>
+      <c r="C500" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500">
+        <v>245.5034475094771</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>2045</v>
+      </c>
+      <c r="C501" t="s">
+        <v>7</v>
+      </c>
+      <c r="D501">
+        <v>246.9678912539314</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>2046</v>
+      </c>
+      <c r="C502" t="s">
+        <v>7</v>
+      </c>
+      <c r="D502">
+        <v>247.95935721171</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>2047</v>
+      </c>
+      <c r="C503" t="s">
+        <v>7</v>
+      </c>
+      <c r="D503">
+        <v>248.6284252751374</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>2048</v>
+      </c>
+      <c r="C504" t="s">
+        <v>7</v>
+      </c>
+      <c r="D504">
+        <v>249.078940025141</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>2049</v>
+      </c>
+      <c r="C505" t="s">
+        <v>7</v>
+      </c>
+      <c r="D505">
+        <v>249.3818442108413</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>2050</v>
+      </c>
+      <c r="C506" t="s">
+        <v>7</v>
+      </c>
+      <c r="D506">
+        <v>249.5852997299564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
